--- a/HAN_documents/4tables.xlsx
+++ b/HAN_documents/4tables.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+  <si>
+    <t>按键含义</t>
+  </si>
   <si>
     <t>暂停2/贪睡</t>
   </si>
@@ -182,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -204,53 +215,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,46 +298,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +336,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,19 +366,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +462,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,31 +510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,91 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,71 +551,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,6 +586,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +671,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,6 +809,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,137 +1136,141 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.4444444444444" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="17.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:9">
-      <c r="B1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="2:9">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1"/>
@@ -1299,6 +1317,9 @@
       <c r="L20" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1320,106 +1341,106 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1444,66 +1465,66 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
